--- a/data/docs/csv/room_category.xlsx
+++ b/data/docs/csv/room_category.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHRDI-05\Desktop\project_hotel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\workspace-jsp\project_hotel\data\docs\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -52,6 +52,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>presidential_suite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>terrace</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -64,23 +76,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>deluxe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>pacific_deluxe</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>royal_suite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>presidentia_suite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>standard</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1064,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
